--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86509B43-4E5A-4472-9DBD-5CB2FF74B54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DC822D-F053-4E86-8A06-C8B8BFB81ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
   <si>
     <t>2일</t>
   </si>
@@ -393,6 +393,10 @@
   </si>
   <si>
     <t>메시지 더 구현해야 함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 구조 작업 중</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -681,13 +685,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,7 +1015,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1023,21 +1027,21 @@
   <dimension ref="A3:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="42.125" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="41.09765625" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="6" width="42.09765625" customWidth="1"/>
+    <col min="7" max="7" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="s">
         <v>77</v>
@@ -1047,7 +1051,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1087,7 +1091,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1123,7 +1127,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1139,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1154,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1168,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1185,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1192,7 +1196,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +1213,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1225,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1236,7 +1240,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1252,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +1262,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1275,7 +1279,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1287,7 +1291,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1301,7 +1305,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1316,7 +1320,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1331,7 +1335,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1346,7 +1350,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1356,7 +1360,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1373,7 +1377,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1384,7 +1388,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1399,7 +1403,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1412,7 +1416,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1427,7 +1431,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1444,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1450,7 +1454,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1471,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>52</v>
       </c>
@@ -1478,7 +1482,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1491,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1496,14 +1500,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1514,7 +1518,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1535,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1542,8 +1546,8 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
+    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1551,16 +1555,16 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
         <v>51</v>
       </c>
@@ -1600,14 +1604,16 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D44" s="2" t="s">
         <v>53</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +1642,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1648,7 +1654,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
@@ -1663,7 +1669,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
@@ -1677,7 +1683,7 @@
       <c r="E48" s="2"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1700,7 @@
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
@@ -1705,7 +1711,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
@@ -1722,7 +1728,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
@@ -1734,7 +1740,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
@@ -1749,7 +1755,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
@@ -1761,7 +1767,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
@@ -1771,7 +1777,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
@@ -1788,7 +1794,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -1800,7 +1806,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -1814,7 +1820,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
@@ -1829,7 +1835,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
@@ -1844,7 +1850,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
@@ -1859,7 +1865,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1869,7 +1875,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -1886,7 +1892,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -1897,7 +1903,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -1912,7 +1918,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -1925,7 +1931,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -1940,7 +1946,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -1953,7 +1959,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -1963,7 +1969,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
@@ -1980,7 +1986,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -1991,7 +1997,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +2006,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2009,14 +2015,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2027,7 +2033,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2044,7 +2050,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2061,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DC822D-F053-4E86-8A06-C8B8BFB81ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199DEA78-10CF-41B7-B471-6492896249F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="82">
   <si>
     <t>2일</t>
   </si>
@@ -232,10 +232,6 @@
   </si>
   <si>
     <t>게임 시작 패킷 전송(맵 정보, 초기 위치)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트 접속, 쓰레드 할당</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -397,6 +393,15 @@
   </si>
   <si>
     <t>클라이언트 구조 작업 중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지(링버퍼) Push, Pop 구현
+클라이언트 접속, 쓰레드 할당</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지, 클라이언트 접속, 쓰레드 할당</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,6 +698,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1015,7 +1023,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1026,32 +1034,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" customWidth="1"/>
-    <col min="2" max="2" width="42.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" customWidth="1"/>
-    <col min="4" max="4" width="41.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="6" width="42.09765625" customWidth="1"/>
-    <col min="7" max="7" width="27.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="42.125" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1074,7 +1082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1091,7 +1099,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1104,13 +1112,13 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1122,12 +1130,12 @@
         <v>38</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>57</v>
+      <c r="F7" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1147,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1162,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1168,35 +1176,35 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1209,11 +1217,11 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1233,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1236,11 +1244,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1248,11 +1256,11 @@
       <c r="C16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1262,24 +1270,24 @@
       <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1287,25 +1295,25 @@
       <c r="C19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1313,14 +1321,14 @@
         <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1329,13 +1337,13 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1346,11 +1354,11 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1360,24 +1368,24 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1388,7 +1396,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1399,11 +1407,11 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1412,11 +1420,11 @@
       </c>
       <c r="D28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1431,7 +1439,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1444,7 +1452,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1454,24 +1462,24 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>52</v>
       </c>
@@ -1482,7 +1490,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1499,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1500,14 +1508,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1526,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1543,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1554,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1555,16 +1563,16 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
@@ -1587,7 +1595,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>51</v>
       </c>
@@ -1600,11 +1608,11 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1612,20 +1620,20 @@
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
@@ -1637,12 +1645,12 @@
         <v>38</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>57</v>
+      <c r="F45" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1654,7 +1662,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1677,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
@@ -1683,35 +1691,35 @@
       <c r="E48" s="2"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
@@ -1724,11 +1732,11 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
@@ -1740,7 +1748,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
@@ -1751,11 +1759,11 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
@@ -1763,11 +1771,11 @@
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
@@ -1777,24 +1785,24 @@
       <c r="F55" s="15"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -1802,25 +1810,25 @@
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
@@ -1828,14 +1836,14 @@
         <v>39</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
@@ -1844,13 +1852,13 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="15"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
@@ -1861,11 +1869,11 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1875,24 +1883,24 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -1903,7 +1911,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -1914,11 +1922,11 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -1927,11 +1935,11 @@
       </c>
       <c r="D66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -1946,7 +1954,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -1959,7 +1967,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -1969,24 +1977,24 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -1997,7 +2005,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2014,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2015,14 +2023,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2033,7 +2041,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2058,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2061,7 +2069,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199DEA78-10CF-41B7-B471-6492896249F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5E4DB-639D-497A-A00A-DDA93FB44BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="83">
   <si>
     <t>2일</t>
   </si>
@@ -402,6 +402,10 @@
   </si>
   <si>
     <t>메시지, 클라이언트 접속, 쓰레드 할당</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 로비 작업, 네트워크 쓰레드 작업</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -693,14 +697,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1023,7 +1027,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1034,32 +1038,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="42.125" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="41.09765625" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="6" width="42.09765625" customWidth="1"/>
+    <col min="7" max="7" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1099,7 +1103,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1118,7 +1122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1139,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1151,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1166,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1180,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1197,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1208,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1221,7 +1225,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1237,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1252,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1260,7 +1264,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1270,7 +1274,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1291,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1299,7 +1303,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1317,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1328,7 +1332,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1347,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1362,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1368,7 +1372,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1385,7 +1389,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1396,7 +1400,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1411,7 +1415,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1424,7 +1428,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1439,7 +1443,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1452,7 +1456,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1462,7 +1466,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1479,7 +1483,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>52</v>
       </c>
@@ -1490,7 +1494,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1503,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1508,14 +1512,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1526,7 +1530,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1543,7 +1547,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1558,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1563,16 +1567,16 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="20" t="s">
+    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
@@ -1595,11 +1599,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="2"/>
@@ -1612,11 +1616,11 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1633,24 +1637,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>55</v>
+      <c r="B45" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="20" t="s">
         <v>80</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1662,7 +1666,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1681,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
@@ -1691,7 +1695,7 @@
       <c r="E48" s="2"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
@@ -1708,7 +1712,7 @@
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
@@ -1719,7 +1723,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
@@ -1736,7 +1740,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
@@ -1748,7 +1752,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
@@ -1763,7 +1767,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
@@ -1775,7 +1779,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
@@ -1785,7 +1789,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
@@ -1802,7 +1806,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -1814,7 +1818,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -1828,7 +1832,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
@@ -1843,7 +1847,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
@@ -1858,7 +1862,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
@@ -1873,7 +1877,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1883,7 +1887,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -1900,7 +1904,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -1911,7 +1915,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -1926,7 +1930,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -1939,7 +1943,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -1954,7 +1958,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -1967,7 +1971,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -1977,7 +1981,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
@@ -1994,7 +1998,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -2005,7 +2009,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2018,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2023,14 +2027,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2045,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2058,7 +2062,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2069,7 +2073,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5E4DB-639D-497A-A00A-DDA93FB44BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAB197F-54C3-4725-8DFD-7C37CEF9D596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="84">
   <si>
     <t>2일</t>
   </si>
@@ -408,12 +408,16 @@
     <t>클라이언트 로비 작업, 네트워크 쓰레드 작업</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>타 과목 과제 수행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +498,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -636,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +717,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1027,7 +1042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,22 +1053,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" customWidth="1"/>
-    <col min="2" max="2" width="42.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" customWidth="1"/>
-    <col min="4" max="4" width="41.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="6" width="42.09765625" customWidth="1"/>
-    <col min="7" max="7" width="27.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="42.125" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="21" t="s">
         <v>76</v>
@@ -1063,7 +1078,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1103,7 +1118,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1122,7 +1137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1154,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1166,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1181,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1195,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1212,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1223,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1225,7 +1240,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1252,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1267,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +1279,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1289,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1306,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1318,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1317,7 +1332,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1332,7 +1347,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1362,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1362,7 +1377,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1372,7 +1387,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1389,7 +1404,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1415,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1415,7 +1430,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1428,7 +1443,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1443,7 +1458,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1456,7 +1471,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1466,7 +1481,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1483,7 +1498,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>52</v>
       </c>
@@ -1494,7 +1509,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1518,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1512,14 +1527,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1530,7 +1545,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1562,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1573,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1567,7 +1582,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="21" t="s">
         <v>77</v>
       </c>
@@ -1576,7 +1591,7 @@
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>51</v>
       </c>
@@ -1616,7 +1631,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1637,7 +1652,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
@@ -1654,19 +1669,21 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G46" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1698,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
@@ -1695,7 +1712,7 @@
       <c r="E48" s="2"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1729,7 @@
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +1740,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
@@ -1740,7 +1757,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
@@ -1752,7 +1769,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
@@ -1767,7 +1784,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1796,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1806,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
@@ -1806,7 +1823,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -1818,7 +1835,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1849,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
@@ -1847,7 +1864,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
@@ -1862,7 +1879,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
@@ -1877,7 +1894,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1887,7 +1904,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -1904,7 +1921,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -1915,7 +1932,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -1930,7 +1947,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -1943,7 +1960,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -1958,7 +1975,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -1971,7 +1988,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -1981,7 +1998,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
@@ -1998,7 +2015,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -2009,7 +2026,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2035,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2027,14 +2044,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2045,7 +2062,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2079,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2073,7 +2090,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAB197F-54C3-4725-8DFD-7C37CEF9D596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D93F047-0C32-4120-966E-34D9954181F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -712,14 +712,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1070,13 +1070,13 @@
   <sheetData>
     <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -1583,13 +1583,13 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
@@ -1676,7 +1676,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G46" s="3" t="s">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\류성호\Desktop\network game programming\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5E4DB-639D-497A-A00A-DDA93FB44BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EFD30A-050E-493A-BF1C-3B11F21FF667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
   <si>
     <t>2일</t>
   </si>
@@ -338,10 +338,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>서버 클래스 생성 및 함수 정의</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -408,12 +404,29 @@
     <t>클라이언트 로비 작업, 네트워크 쓰레드 작업</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>서버 클래스 생성 및 함수 정의
+예외 처리 클래스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외 처리 클래스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일 지성님이 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌체크, 플레이어 위치체크 등 아직 추가해야함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +505,15 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -636,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +727,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1038,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1048,7 +1076,7 @@
     <col min="2" max="2" width="42.19921875" customWidth="1"/>
     <col min="3" max="3" width="13.8984375" customWidth="1"/>
     <col min="4" max="4" width="41.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="42.09765625" customWidth="1"/>
     <col min="7" max="7" width="27.19921875" customWidth="1"/>
   </cols>
@@ -1056,7 +1084,7 @@
     <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -1135,7 +1163,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -1569,7 +1597,7 @@
     </row>
     <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
@@ -1607,12 +1635,12 @@
         <v>44</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="16" t="s">
-        <v>74</v>
+      <c r="F43" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -1624,17 +1652,17 @@
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1642,15 +1670,17 @@
         <v>3</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="2"/>
+      <c r="D45" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F45" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -1660,7 +1690,12 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F46" s="2" t="s">
         <v>34</v>
       </c>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D93F047-0C32-4120-966E-34D9954181F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E04201-C6EB-4300-8484-47D86560094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
   <si>
     <t>2일</t>
   </si>
@@ -410,6 +410,14 @@
   </si>
   <si>
     <t>타 과목 과제 수행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send, Recv 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 패킷 작업 후 이어서 작업 가능</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1042,7 +1050,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1053,22 +1061,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="42.125" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="41.09765625" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="6" width="42.09765625" customWidth="1"/>
+    <col min="7" max="7" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="22" t="s">
         <v>76</v>
@@ -1078,7 +1086,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1101,7 +1109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1118,7 +1126,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1154,7 +1162,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1174,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1189,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1203,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1220,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1231,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1248,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +1260,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1267,7 +1275,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1287,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1297,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1314,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1326,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1332,7 +1340,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1347,7 +1355,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1362,7 +1370,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1377,7 +1385,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1387,7 +1395,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1412,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1415,7 +1423,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1430,7 +1438,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1443,7 +1451,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1458,7 +1466,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1471,7 +1479,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1481,7 +1489,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1498,7 +1506,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>52</v>
       </c>
@@ -1509,7 +1517,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1526,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1527,14 +1535,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1545,7 +1553,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1562,7 +1570,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1573,7 +1581,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1582,7 +1590,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="22" t="s">
         <v>77</v>
       </c>
@@ -1591,7 +1599,7 @@
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
@@ -1614,7 +1622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
         <v>51</v>
       </c>
@@ -1631,7 +1639,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1677,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1683,14 +1691,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
@@ -1698,21 +1708,23 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D48" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="2"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
@@ -1729,7 +1741,7 @@
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
@@ -1740,7 +1752,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
@@ -1757,7 +1769,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
@@ -1769,7 +1781,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
@@ -1784,7 +1796,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
@@ -1796,7 +1808,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
@@ -1806,7 +1818,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
@@ -1823,7 +1835,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -1835,7 +1847,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -1849,7 +1861,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1876,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
@@ -1879,7 +1891,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
@@ -1894,7 +1906,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1904,7 +1916,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -1921,7 +1933,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -1932,7 +1944,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -1947,7 +1959,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -1960,7 +1972,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -1975,7 +1987,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -1988,7 +2000,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -1998,7 +2010,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
@@ -2015,7 +2027,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -2026,7 +2038,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2047,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2044,14 +2056,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2062,7 +2074,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2079,7 +2091,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2090,7 +2102,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E04201-C6EB-4300-8484-47D86560094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD7A6AD-0F15-4A9E-9DE9-2620F6B213C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -1062,7 +1062,7 @@
   <dimension ref="A3:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1695,7 +1695,7 @@
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="2" t="s">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\류성호\Desktop\network game programming\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EFD30A-050E-493A-BF1C-3B11F21FF667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C9EAFA-22B3-4CAE-A7D3-75F2813A414E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="87">
   <si>
     <t>2일</t>
   </si>
@@ -419,6 +419,10 @@
   </si>
   <si>
     <t>충돌체크, 플레이어 위치체크 등 아직 추가해야함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 오류 수정 완료</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -722,17 +726,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1067,7 +1071,7 @@
   <dimension ref="A3:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1083,13 +1087,13 @@
   <sheetData>
     <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
@@ -1596,13 +1600,13 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
@@ -1635,7 +1639,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="2"/>
@@ -1654,7 +1658,7 @@
       <c r="C44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="2"/>
@@ -1690,7 +1694,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -1709,8 +1713,12 @@
         <v>45</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="F47" s="2" t="s">
         <v>34</v>
       </c>
@@ -1724,7 +1732,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="2"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\류성호\Desktop\network game programming\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD7A6AD-0F15-4A9E-9DE9-2620F6B213C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587E263A-98A1-406A-AC6D-0C6C2E34D75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="87">
   <si>
     <t>2일</t>
   </si>
@@ -338,10 +338,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>서버 클래스 생성 및 함수 정의</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -420,12 +416,21 @@
     <t>서버 패킷 작업 후 이어서 작업 가능</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>서버 클래스 생성 및 함수 정의
+예외 처리 클래스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송이 잘 되었는진 확인해야함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +519,15 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -656,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,6 +742,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1061,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1079,7 +1096,7 @@
     <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -1158,7 +1175,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -1592,7 +1609,7 @@
     </row>
     <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
@@ -1630,12 +1647,12 @@
         <v>44</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="16" t="s">
-        <v>74</v>
+      <c r="F43" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -1647,17 +1664,17 @@
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1665,15 +1682,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="D45" s="24"/>
       <c r="E45" s="2"/>
       <c r="F45" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -1683,12 +1698,15 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
+      <c r="D46" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -1699,9 +1717,11 @@
         <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
         <v>34</v>
@@ -1716,12 +1736,14 @@
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\류성호\Desktop\network game programming\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587E263A-98A1-406A-AC6D-0C6C2E34D75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246CB72-8EFA-44D9-8C2F-31CFAD0E5B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -413,16 +413,16 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>서버 패킷 작업 후 이어서 작업 가능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>서버 클래스 생성 및 함수 정의
 예외 처리 클래스</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>전송이 잘 되었는진 확인해야함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입 별로 구분하여 받도록 개발 완료, 게임 스타트 구현, 맵 정보 잘 보내는 지 확인필요</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -737,14 +737,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1079,7 +1079,7 @@
   <dimension ref="A3:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1095,13 +1095,13 @@
   <sheetData>
     <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
@@ -1608,13 +1608,13 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
@@ -1647,12 +1647,12 @@
         <v>44</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -1666,7 +1666,7 @@
       <c r="C44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="22" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="2"/>
@@ -1685,7 +1685,7 @@
         <v>81</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="24"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="2"/>
       <c r="F45" s="20" t="s">
         <v>79</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="2"/>
@@ -1719,7 +1719,7 @@
       <c r="C47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="2"/>
@@ -1732,17 +1732,17 @@
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G48" s="3"/>
     </row>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246CB72-8EFA-44D9-8C2F-31CFAD0E5B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7333AEB1-5EAF-4724-B6C6-B777FF516534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>2일</t>
   </si>
@@ -515,17 +515,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -737,14 +738,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1067,7 +1068,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1078,32 +1079,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" customWidth="1"/>
-    <col min="2" max="2" width="42.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" customWidth="1"/>
-    <col min="4" max="4" width="41.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="6" width="42.09765625" customWidth="1"/>
-    <col min="7" max="7" width="27.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="42.125" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1143,7 +1144,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +1180,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1192,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1221,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1237,7 +1238,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1249,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1265,7 +1266,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1277,7 +1278,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1292,7 +1293,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1304,7 +1305,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1315,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1332,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1343,7 +1344,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1357,7 +1358,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1372,7 +1373,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1387,7 +1388,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1402,7 +1403,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1412,7 +1413,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1430,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1440,7 +1441,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1468,7 +1469,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1484,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1496,7 +1497,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1506,7 +1507,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1523,7 +1524,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>52</v>
       </c>
@@ -1534,7 +1535,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1544,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1552,14 +1553,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1570,7 +1571,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1588,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1598,7 +1599,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1607,16 +1608,16 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="23" t="s">
+    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>51</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="2"/>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1666,7 +1667,7 @@
       <c r="C44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="2"/>
@@ -1677,7 +1678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
@@ -1685,31 +1686,31 @@
         <v>81</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="22"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="2"/>
       <c r="F45" s="20" t="s">
         <v>79</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
@@ -1719,16 +1720,16 @@
       <c r="C47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
@@ -1738,7 +1739,7 @@
       <c r="C48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="24" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -1746,24 +1747,13 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
@@ -1774,7 +1764,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
@@ -1791,7 +1781,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
@@ -1803,7 +1793,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
@@ -1818,7 +1808,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
@@ -1830,7 +1820,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
@@ -1840,7 +1830,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
@@ -1857,7 +1847,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1859,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -1883,7 +1873,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
@@ -1898,7 +1888,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
@@ -1913,7 +1903,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
@@ -1928,7 +1918,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +1928,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -1955,7 +1945,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -1966,7 +1956,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -1981,7 +1971,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -1994,7 +1984,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -2009,7 +1999,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -2022,7 +2012,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -2032,7 +2022,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
@@ -2049,7 +2039,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -2060,7 +2050,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2059,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2078,14 +2068,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2096,7 +2086,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2113,7 +2103,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2124,7 +2114,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246CB72-8EFA-44D9-8C2F-31CFAD0E5B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6583717C-ADA9-4626-85E9-DE67407C2E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="88">
   <si>
     <t>2일</t>
   </si>
@@ -425,12 +425,37 @@
     <t>타입 별로 구분하여 받도록 개발 완료, 게임 스타트 구현, 맵 정보 잘 보내는 지 확인필요</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임시작 패킷 전송 확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 타이머 구현,</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +551,23 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -670,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +787,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1067,7 +1115,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1079,21 +1127,21 @@
   <dimension ref="A3:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" customWidth="1"/>
-    <col min="2" max="2" width="42.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" customWidth="1"/>
-    <col min="4" max="4" width="41.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="6" width="42.09765625" customWidth="1"/>
-    <col min="7" max="7" width="27.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="42.125" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="23" t="s">
         <v>75</v>
@@ -1103,7 +1151,7 @@
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1126,7 +1174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1143,7 +1191,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +1227,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1239,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1254,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1268,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1237,7 +1285,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1296,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1265,7 +1313,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1277,7 +1325,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1292,7 +1340,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1304,7 +1352,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1362,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1379,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1343,7 +1391,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1357,7 +1405,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1372,7 +1420,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1387,7 +1435,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1402,7 +1450,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1412,7 +1460,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1477,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1440,7 +1488,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1503,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1468,7 +1516,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1531,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1496,7 +1544,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1506,7 +1554,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1523,7 +1571,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>52</v>
       </c>
@@ -1534,7 +1582,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1591,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1552,14 +1600,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1570,7 +1618,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1635,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1598,7 +1646,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1607,7 +1655,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="23" t="s">
         <v>76</v>
       </c>
@@ -1616,7 +1664,7 @@
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
     </row>
-    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
@@ -1639,7 +1687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>51</v>
       </c>
@@ -1656,7 +1704,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1677,7 +1725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1740,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1702,14 +1750,12 @@
         <v>34</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="F46" s="21"/>
       <c r="G46" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
@@ -1723,22 +1769,20 @@
         <v>34</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -1746,35 +1790,24 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" t="s">
-        <v>58</v>
+      <c r="F50" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
@@ -1791,7 +1824,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
@@ -1803,7 +1836,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
@@ -1818,7 +1851,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
@@ -1830,7 +1863,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
@@ -1840,7 +1873,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
@@ -1857,7 +1890,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1902,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -1883,7 +1916,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
@@ -1898,7 +1931,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
@@ -1913,7 +1946,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
@@ -1928,7 +1961,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +1971,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -1955,7 +1988,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -1966,7 +1999,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -1981,7 +2014,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -1994,7 +2027,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -2009,7 +2042,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -2022,7 +2055,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -2032,7 +2065,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
@@ -2049,7 +2082,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -2060,7 +2093,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2102,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2078,14 +2111,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2096,7 +2129,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2113,7 +2146,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2124,7 +2157,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6583717C-ADA9-4626-85E9-DE67407C2E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA99E5B3-C344-4BCD-832A-C5CA176DC520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="90">
   <si>
     <t>2일</t>
   </si>
@@ -448,6 +448,35 @@
       </rPr>
       <t>, 타이머 구현,</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>타이머 클래스 구현,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 스레드간 타이머 동기화 실패</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스레드 타이머 시간 동기화 필요</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,16 +811,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1137,19 +1169,19 @@
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="41.125" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="42.125" customWidth="1"/>
+    <col min="6" max="6" width="45.625" customWidth="1"/>
     <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -1656,13 +1688,13 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
@@ -1776,13 +1808,13 @@
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="23" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -1802,7 +1834,7 @@
       </c>
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="24" t="s">
         <v>87</v>
       </c>
       <c r="G50" s="3"/>
@@ -1819,10 +1851,12 @@
         <v>47</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="3"/>
+      <c r="F51" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA99E5B3-C344-4BCD-832A-C5CA176DC520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F848A5-58F2-46A4-A56A-C1E24D5AA377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>2일</t>
   </si>
@@ -477,6 +477,36 @@
   </si>
   <si>
     <t>스레드 타이머 시간 동기화 필요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>본가 가족모임</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스레드 간 타이머 동기화 완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+오브젝트 충돌체크 로직 구현</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -817,14 +847,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1158,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1175,13 +1205,13 @@
   <sheetData>
     <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -1688,13 +1718,13 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
@@ -1851,7 +1881,7 @@
         <v>47</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="25" t="s">
         <v>88</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -1880,20 +1910,22 @@
         <v>47</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>66</v>
+      <c r="F54" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="G54" s="3"/>
     </row>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\류성호\Desktop\network game programming\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7333AEB1-5EAF-4724-B6C6-B777FF516534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FE9989-69E2-416F-ACD5-429C01251263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="89">
   <si>
     <t>2일</t>
   </si>
@@ -425,12 +425,20 @@
     <t>타입 별로 구분하여 받도록 개발 완료, 게임 스타트 구현, 맵 정보 잘 보내는 지 확인필요</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>다른거 하느라 하지 못했습니다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치계산은 완료, 보내고 받기 구현해야함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +535,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -671,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,13 +762,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,7 +1101,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1079,32 +1112,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="42.125" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="41.09765625" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="6" width="42.09765625" customWidth="1"/>
+    <col min="7" max="7" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1127,7 +1160,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1144,7 +1177,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1163,7 +1196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1213,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1192,7 +1225,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1207,7 +1240,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1254,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1271,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1282,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1299,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1311,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1293,7 +1326,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1305,7 +1338,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1315,7 +1348,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1332,7 +1365,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1344,7 +1377,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1391,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1406,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1388,7 +1421,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1403,7 +1436,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1413,7 +1446,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1430,7 +1463,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1441,7 +1474,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +1489,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1469,7 +1502,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1517,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1497,7 +1530,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1507,7 +1540,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1524,7 +1557,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>52</v>
       </c>
@@ -1535,7 +1568,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1577,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1553,14 +1586,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1571,7 +1604,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1621,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1599,7 +1632,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1608,16 +1641,16 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="22" t="s">
+    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
@@ -1640,7 +1673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
         <v>51</v>
       </c>
@@ -1657,7 +1690,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1678,7 +1711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
@@ -1693,7 +1726,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
@@ -1729,7 +1762,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1772,7 @@
       <c r="C48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -1747,13 +1780,13 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1797,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
@@ -1772,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="2"/>
@@ -1781,46 +1814,53 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="26" t="s">
         <v>47</v>
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F53" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
@@ -1830,7 +1870,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
@@ -1847,7 +1887,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -1859,7 +1899,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -1873,7 +1913,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1928,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
@@ -1903,7 +1943,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
@@ -1918,7 +1958,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +1968,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -1945,7 +1985,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -1956,7 +1996,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -1971,7 +2011,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -1984,7 +2024,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -1999,7 +2039,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -2012,7 +2052,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -2022,7 +2062,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
@@ -2039,7 +2079,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -2050,7 +2090,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +2099,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2068,14 +2108,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2086,7 +2126,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2103,7 +2143,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2114,7 +2154,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F848A5-58F2-46A4-A56A-C1E24D5AA377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60BF3F4-CDEE-4D51-AF52-8FFFAE11D1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="94">
   <si>
     <t>2일</t>
   </si>
@@ -196,10 +196,6 @@
   </si>
   <si>
     <t>새로운 플레이어 위치 계산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사운드 작업</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -505,8 +501,31 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-오브젝트 충돌체크 로직 구현</t>
+</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>오브젝트 충돌체크 로직 구현</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송받은 플레이어 위치에 렌더링</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 Recv, Send 구조 정립</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 Recv, Send 구조 정립</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1188,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1225,7 @@
     <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -1215,30 +1234,30 @@
     </row>
     <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>44</v>
@@ -1258,18 +1277,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1277,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -1285,7 +1304,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -1321,11 +1340,11 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
@@ -1335,15 +1354,15 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -1354,7 +1373,7 @@
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1363,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -1371,7 +1390,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1380,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>47</v>
@@ -1398,7 +1417,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -1406,11 +1425,16 @@
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
       <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -1418,10 +1442,14 @@
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="15"/>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1429,15 +1457,15 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1445,25 +1473,28 @@
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" s="3"/>
     </row>
@@ -1471,14 +1502,12 @@
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G21" s="3"/>
     </row>
@@ -1486,29 +1515,33 @@
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
+      <c r="B22" t="s">
+        <v>91</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="15" t="s">
-        <v>69</v>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
+      <c r="B23" t="s">
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>60</v>
+      <c r="F23" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -1516,10 +1549,15 @@
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1527,15 +1565,15 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1547,21 +1585,25 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="15" t="s">
-        <v>64</v>
+      <c r="F27" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -1570,11 +1612,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -1583,27 +1624,33 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1621,21 +1668,21 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1649,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -1658,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -1719,7 +1766,7 @@
     </row>
     <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -1728,30 +1775,30 @@
     </row>
     <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>44</v>
@@ -1762,7 +1809,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -1771,20 +1818,20 @@
         <v>2</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1792,13 +1839,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="22"/>
       <c r="E45" s="2"/>
       <c r="F45" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -1814,7 +1861,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="21"/>
       <c r="G46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1825,7 +1872,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>34</v>
@@ -1842,13 +1889,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G48" s="3"/>
     </row>
@@ -1865,7 +1912,7 @@
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -1873,27 +1920,21 @@
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>47</v>
@@ -1911,10 +1952,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1925,7 +1966,7 @@
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -1933,10 +1974,14 @@
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="15"/>
+      <c r="F55" t="s">
+        <v>92</v>
+      </c>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1944,15 +1989,15 @@
         <v>14</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G56" s="5"/>
     </row>
@@ -1960,25 +2005,28 @@
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G58" s="3"/>
     </row>
@@ -1986,14 +2034,12 @@
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G59" s="3"/>
     </row>
@@ -2001,29 +2047,33 @@
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>40</v>
+      <c r="B60" t="s">
+        <v>91</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="15" t="s">
-        <v>69</v>
+      <c r="D60" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="15"/>
+      <c r="F60" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>41</v>
+      <c r="B61" t="s">
+        <v>91</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
-        <v>60</v>
+      <c r="F61" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -2031,10 +2081,15 @@
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2042,15 +2097,15 @@
         <v>21</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G63" s="5"/>
     </row>
@@ -2062,21 +2117,25 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="15" t="s">
-        <v>64</v>
+      <c r="F65" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G65" s="3"/>
     </row>
@@ -2085,11 +2144,10 @@
         <v>24</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="F66" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="G66" s="3"/>
     </row>
@@ -2098,27 +2156,33 @@
         <v>25</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2136,21 +2200,21 @@
         <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2164,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G72" s="3"/>
     </row>
@@ -2173,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G73" s="3"/>
     </row>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60BF3F4-CDEE-4D51-AF52-8FFFAE11D1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AAF3DF-981A-4A6C-B68D-510E0FB038C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="96">
   <si>
     <t>2일</t>
   </si>
@@ -528,12 +528,20 @@
     <t>클라이언트 Recv, Send 구조 정립</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>서버 Recv, Send 구조 정립 및 테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 Recv, Send 스레드 간 동기화 테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +656,14 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -790,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,6 +890,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1207,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1979,8 +2001,8 @@
       </c>
       <c r="C55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" t="s">
-        <v>92</v>
+      <c r="F55" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="G55" s="3"/>
     </row>
@@ -1988,18 +2010,10 @@
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" s="5"/>
+      <c r="F56" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F848A5-58F2-46A4-A56A-C1E24D5AA377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC77189-44CF-4AE1-B74F-9B3AD8C013D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="91">
   <si>
     <t>2일</t>
   </si>
@@ -480,33 +480,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>본가 가족모임</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스레드 간 타이머 동기화 완료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-오브젝트 충돌체크 로직 구현</t>
-    </r>
+    <t>게임 시작 패킷 수신 및 맵 받아서 그리기, 최신화된 서버반영</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1177,7 +1151,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1188,22 +1162,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="45.625" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="41.09765625" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="6" width="45.59765625" customWidth="1"/>
+    <col min="7" max="7" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="26" t="s">
         <v>75</v>
@@ -1213,7 +1187,7 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1236,7 +1210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1253,7 +1227,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1246,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1289,7 +1263,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1275,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1290,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1304,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1321,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1332,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +1349,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1361,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1376,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1414,7 +1388,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1424,7 +1398,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +1415,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1453,7 +1427,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1467,7 +1441,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1482,7 +1456,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1497,7 +1471,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1512,7 +1486,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1522,7 +1496,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1539,7 +1513,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1550,7 +1524,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1565,7 +1539,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1578,7 +1552,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1593,7 +1567,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1606,7 +1580,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1616,7 +1590,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1633,7 +1607,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>52</v>
       </c>
@@ -1644,7 +1618,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1627,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1662,14 +1636,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1680,7 +1654,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1697,7 +1671,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1682,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1717,7 +1691,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="26" t="s">
         <v>76</v>
       </c>
@@ -1726,7 +1700,7 @@
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
     </row>
-    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
@@ -1749,7 +1723,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
         <v>51</v>
       </c>
@@ -1766,7 +1740,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1761,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1776,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1817,7 +1791,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1808,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
@@ -1852,13 +1826,13 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
@@ -1869,11 +1843,11 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="2"/>
@@ -1888,11 +1862,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -1900,7 +1874,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
@@ -1910,26 +1884,26 @@
         <v>47</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="18" t="s">
-        <v>91</v>
+      <c r="F54" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
@@ -1939,7 +1913,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
@@ -1956,7 +1930,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -1968,7 +1942,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -1982,7 +1956,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
@@ -1997,7 +1971,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
@@ -2012,7 +1986,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
@@ -2027,7 +2001,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
@@ -2037,7 +2011,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -2054,7 +2028,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -2065,7 +2039,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -2080,7 +2054,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -2093,7 +2067,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -2108,7 +2082,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -2121,7 +2095,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -2131,7 +2105,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
@@ -2148,7 +2122,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -2159,7 +2133,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2142,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2177,14 +2151,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2195,7 +2169,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2212,7 +2186,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2223,7 +2197,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D989D260-C8CF-4D3E-820F-3138A0563570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434DF2E5-A4AE-40FD-842B-5165050DF177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
   <si>
     <t>2일</t>
   </si>
@@ -418,10 +418,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>타입 별로 구분하여 받도록 개발 완료, 게임 스타트 구현, 맵 정보 잘 보내는 지 확인필요</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -537,7 +533,46 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>게임 시작 패킷 수신 및 맵 받아서 그리기, 최신화된 서버반영</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임 시작 패킷 수신</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 후 초기 위치 설정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입 별로 구분하여 받도록 개발 완료, 게임 스타트 구현, 맵 정보 잘 보내는 지 확인 및 맵 수정(네트워크)필요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 쪽에서 맵 관련 작업 수정 완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 작업 오류 수정(깃 머지하면서 추가된 작업)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 받아서 그리기, 클라이언트 구조 수정(함수 등 네트워크 라이브러리에 있는 걸로 변경),  최신화된 서버반영</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,6 +935,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1234,7 +1272,7 @@
   <dimension ref="A3:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1452,7 +1490,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -1469,12 +1507,12 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="3"/>
     </row>
@@ -1542,7 +1580,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -1559,7 +1597,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
@@ -1912,10 +1950,10 @@
         <v>6</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>55</v>
@@ -1929,6 +1967,9 @@
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="B49" s="30" t="s">
+        <v>98</v>
+      </c>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -1938,7 +1979,7 @@
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -1946,22 +1987,25 @@
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="D51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="B52" s="16"/>
       <c r="D52" s="2" t="s">
         <v>47</v>
       </c>
@@ -1971,7 +2015,9 @@
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
         <v>47</v>
@@ -1981,20 +2027,17 @@
         <v>65</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -2005,7 +2048,7 @@
       <c r="C55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G55" s="3"/>
     </row>
@@ -2014,7 +2057,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G56" s="3"/>
     </row>
@@ -2065,7 +2108,7 @@
         <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
@@ -2082,7 +2125,7 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434DF2E5-A4AE-40FD-842B-5165050DF177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9BFB71-4525-4C85-BEF5-C8581A248E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
   <si>
     <t>2일</t>
   </si>
@@ -405,10 +405,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Send, Recv 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>서버 클래스 생성 및 함수 정의
 예외 처리 클래스</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -564,15 +560,24 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>네트워크 쪽에서 맵 관련 작업 수정 완료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>클라이언트 작업 오류 수정(깃 머지하면서 추가된 작업)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>맵 받아서 그리기, 클라이언트 구조 수정(함수 등 네트워크 라이브러리에 있는 걸로 변경),  최신화된 서버반영</t>
+    <t>스레드 함수 생성 및 수신 기능 구현 
+클라 Send, Recv 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 받아서 그리기, 클라이언트 구조 수정(함수 등 네트워크 라이브러리에 있는 걸로 변경)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네트워크에서 맵 수정 필요 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크에서 맵 수정 완료</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +712,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,6 +732,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -845,7 +856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,16 +938,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1271,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1288,13 +1308,13 @@
   <sheetData>
     <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
@@ -1490,7 +1510,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -1507,12 +1527,12 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="3"/>
     </row>
@@ -1580,7 +1600,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -1597,7 +1617,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
@@ -1829,13 +1849,13 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
@@ -1873,7 +1893,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -1928,16 +1948,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="B47" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="22" t="s">
         <v>34</v>
       </c>
@@ -1950,16 +1968,16 @@
         <v>6</v>
       </c>
       <c r="B48" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>55</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" s="3"/>
     </row>
@@ -1967,19 +1985,25 @@
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="3"/>
+      <c r="B49" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -1987,18 +2011,18 @@
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>97</v>
+      <c r="C51" t="s">
+        <v>100</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -2011,12 +2035,12 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>99</v>
+      <c r="B53" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
@@ -2027,7 +2051,7 @@
         <v>65</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2037,7 +2061,7 @@
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -2048,7 +2072,7 @@
       <c r="C55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G55" s="3"/>
     </row>
@@ -2056,16 +2080,20 @@
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" s="3"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" s="31"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C57" s="2"/>
@@ -2108,7 +2136,7 @@
         <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
@@ -2125,7 +2153,7 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C-Sync\Naver MYBOX\문서\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9BFB71-4525-4C85-BEF5-C8581A248E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755C70DC-DDC7-47F8-A63A-994B00DF4B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="102">
   <si>
     <t>2일</t>
   </si>
@@ -268,18 +268,6 @@
   </si>
   <si>
     <t>오브젝트 충돌체크 로직 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 HP, 위치 메시지 전송</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 정보 메시지 전송</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>승리조건 메시지 전송</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -578,6 +566,22 @@
   </si>
   <si>
     <t>네트워크에서 맵 수정 완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 메시지 전송</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트와 업데이트 정보 패킷 구성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 정보 메시지 전송</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위치 메시지 패킷 구성 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,25 +942,31 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,7 +1290,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1291,32 +1301,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" customWidth="1"/>
-    <col min="2" max="2" width="42.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" customWidth="1"/>
-    <col min="4" max="4" width="41.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="6" width="45.59765625" customWidth="1"/>
-    <col min="7" max="7" width="27.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="45.625" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
@@ -1356,7 +1366,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1369,13 +1379,13 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1388,11 +1398,11 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1414,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1419,7 +1429,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1433,7 +1443,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +1460,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1471,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1478,7 +1488,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1500,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1505,12 +1515,12 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -1522,21 +1532,21 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1553,7 +1563,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1565,7 +1575,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1574,7 +1584,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -1582,29 +1592,29 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -1612,16 +1622,16 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="15" t="s">
@@ -1629,14 +1639,14 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="15" t="s">
-        <v>68</v>
+      <c r="D24" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="15" t="s">
@@ -1644,24 +1654,24 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1674,7 +1684,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1691,7 +1701,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1703,7 +1713,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1720,7 +1730,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1737,7 +1747,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1747,24 +1757,24 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>51</v>
       </c>
@@ -1775,7 +1785,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +1794,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1793,14 +1803,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1811,7 +1821,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1828,7 +1838,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1839,7 +1849,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1848,16 +1858,16 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>49</v>
       </c>
@@ -1880,7 +1890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>50</v>
       </c>
@@ -1893,11 +1903,11 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1905,35 +1915,35 @@
         <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="22"/>
       <c r="E45" s="2"/>
       <c r="F45" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1945,15 +1955,15 @@
       <c r="E46" s="2"/>
       <c r="F46" s="21"/>
       <c r="G46" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="22" t="s">
@@ -1963,69 +1973,69 @@
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>55</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="31"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
@@ -2035,12 +2045,12 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
@@ -2051,49 +2061,49 @@
         <v>65</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G56" s="31"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C57" s="2"/>
@@ -2101,7 +2111,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -2109,38 +2119,38 @@
         <v>35</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>66</v>
+      <c r="D58" s="35" t="s">
+        <v>101</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="34" t="s">
         <v>60</v>
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
@@ -2148,16 +2158,16 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="15" t="s">
@@ -2165,14 +2175,14 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="15" t="s">
-        <v>68</v>
+      <c r="D62" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="15" t="s">
@@ -2180,24 +2190,24 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -2210,7 +2220,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -2227,7 +2237,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -2239,7 +2249,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -2256,7 +2266,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -2273,7 +2283,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -2283,24 +2293,24 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>51</v>
       </c>
@@ -2311,7 +2321,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2330,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2329,14 +2339,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2347,7 +2357,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2364,7 +2374,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2375,7 +2385,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stres\OneDrive\바탕 화면\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755C70DC-DDC7-47F8-A63A-994B00DF4B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D367F1-74D8-4FC1-BF0B-6FA83BD6A6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
   <si>
     <t>2일</t>
   </si>
@@ -582,6 +582,14 @@
   </si>
   <si>
     <t xml:space="preserve">위치 메시지 패킷 구성 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타 과목 과제수행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16일 오후~19일 노트북 고장</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -860,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,16 +965,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,7 +1304,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1301,32 +1315,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="45.625" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="41.09765625" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="6" width="45.59765625" customWidth="1"/>
+    <col min="7" max="7" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
@@ -1349,7 +1363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
@@ -1366,7 +1380,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1385,7 +1399,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1416,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1414,7 +1428,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1429,7 +1443,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1443,7 +1457,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1460,7 +1474,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1485,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1488,7 +1502,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1500,7 +1514,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1515,7 +1529,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1532,7 +1546,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1560,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1563,7 +1577,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1575,7 +1589,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1592,7 +1606,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1605,7 +1619,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1622,7 +1636,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1639,7 +1653,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1654,7 +1668,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1671,7 +1685,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +1698,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1715,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1713,7 +1727,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +1744,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1747,7 +1761,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1757,7 +1771,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1774,7 +1788,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>51</v>
       </c>
@@ -1785,7 +1799,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1808,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1803,14 +1817,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1821,7 +1835,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1838,7 +1852,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1863,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1858,16 +1872,16 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="32" t="s">
+    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>49</v>
       </c>
@@ -1890,7 +1904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
         <v>50</v>
       </c>
@@ -1907,7 +1921,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1928,7 +1942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
@@ -1943,7 +1957,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
@@ -1973,7 +1987,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +2005,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
@@ -2004,7 +2018,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="29"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
@@ -2017,14 +2031,14 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="2"/>
@@ -2035,17 +2049,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="16"/>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="33" t="s">
         <v>47</v>
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
@@ -2053,10 +2067,12 @@
         <v>95</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="F53" s="21" t="s">
         <v>65</v>
       </c>
@@ -2064,42 +2080,50 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="2"/>
+      <c r="D54" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="18" t="s">
         <v>85</v>
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="2"/>
+      <c r="D55" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="26" t="s">
         <v>89</v>
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="D56" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="E56" s="28"/>
       <c r="F56" s="30" t="s">
         <v>90</v>
       </c>
       <c r="G56" s="29"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
@@ -2107,11 +2131,12 @@
         <v>35</v>
       </c>
       <c r="C57" s="2"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -2119,29 +2144,30 @@
         <v>35</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="35" t="s">
-        <v>101</v>
-      </c>
+      <c r="D58" s="37"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="34" t="s">
+      <c r="F58" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="21" t="s">
         <v>98</v>
+      </c>
+      <c r="E59" t="s">
+        <v>103</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
@@ -2158,7 +2184,7 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
@@ -2175,7 +2201,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
@@ -2190,7 +2216,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2233,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -2220,7 +2246,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -2237,7 +2263,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -2249,7 +2275,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -2266,7 +2292,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -2283,7 +2309,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -2293,7 +2319,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
@@ -2310,7 +2336,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
         <v>51</v>
       </c>
@@ -2321,7 +2347,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2356,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2339,14 +2365,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2357,7 +2383,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2374,7 +2400,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2385,7 +2411,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stres\OneDrive\바탕 화면\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F848A5-58F2-46A4-A56A-C1E24D5AA377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D367F1-74D8-4FC1-BF0B-6FA83BD6A6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
   <si>
     <t>2일</t>
   </si>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>사운드 작업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -272,18 +268,6 @@
   </si>
   <si>
     <t>오브젝트 충돌체크 로직 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 HP, 위치 메시지 전송</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 정보 메시지 전송</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>승리조건 메시지 전송</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -409,20 +393,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Send, Recv 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>서버 클래스 생성 및 함수 정의
 예외 처리 클래스</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>전송이 잘 되었는진 확인해야함</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입 별로 구분하여 받도록 개발 완료, 게임 스타트 구현, 맵 정보 잘 보내는 지 확인필요</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -505,8 +481,115 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-오브젝트 충돌체크 로직 구현</t>
+</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>오브젝트 충돌체크 로직 구현</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송받은 플레이어 위치에 렌더링</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 Recv, Send 구조 정립</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 Recv, Send 구조 정립</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 Recv, Send 구조 정립 및 테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 Recv, Send 스레드 간 동기화 테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임 시작 패킷 수신</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 후 초기 위치 설정</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입 별로 구분하여 받도록 개발 완료, 게임 스타트 구현, 맵 정보 잘 보내는 지 확인 및 맵 수정(네트워크)필요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 작업 오류 수정(깃 머지하면서 추가된 작업)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스레드 함수 생성 및 수신 기능 구현 
+클라 Send, Recv 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 받아서 그리기, 클라이언트 구조 수정(함수 등 네트워크 라이브러리에 있는 걸로 변경)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네트워크에서 맵 수정 필요 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크에서 맵 수정 완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 메시지 전송</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트와 업데이트 정보 패킷 구성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 정보 메시지 전송</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위치 메시지 패킷 구성 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타 과목 과제수행</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16일 오후~19일 노트북 고장</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,8 +715,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +744,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,11 +947,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1177,7 +1304,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1188,57 +1315,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="45.625" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="41.09765625" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="6" width="45.59765625" customWidth="1"/>
+    <col min="7" max="7" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>44</v>
@@ -1253,31 +1380,31 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -1285,11 +1412,11 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1428,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1316,54 +1443,54 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -1371,23 +1498,23 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1398,148 +1525,167 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
       <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="15"/>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>63</v>
+        <v>98</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
+      <c r="B22" t="s">
+        <v>86</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="15" t="s">
-        <v>69</v>
+      <c r="D22" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
+      <c r="B23" t="s">
+        <v>86</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>60</v>
+      <c r="F23" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1547,66 +1693,75 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="15" t="s">
-        <v>64</v>
+      <c r="F27" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1616,26 +1771,26 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1644,32 +1799,32 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1680,7 +1835,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1697,7 +1852,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1863,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1717,41 +1872,41 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>44</v>
@@ -1762,47 +1917,47 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="22"/>
       <c r="E45" s="2"/>
       <c r="F45" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1814,19 +1969,17 @@
       <c r="E46" s="2"/>
       <c r="F46" s="21"/>
       <c r="G46" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="B47" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="22" t="s">
         <v>34</v>
       </c>
@@ -1834,227 +1987,253 @@
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="B52" s="16"/>
+      <c r="D52" s="33" t="s">
         <v>47</v>
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="F53" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
+      <c r="D54" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
+      <c r="D55" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="15"/>
+      <c r="F55" s="26" t="s">
+        <v>89</v>
+      </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="28"/>
+      <c r="F56" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="C57" s="2"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="D58" s="37"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
-        <v>62</v>
+      <c r="F58" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>63</v>
+      <c r="B59" s="2"/>
+      <c r="D59" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>40</v>
+      <c r="B60" t="s">
+        <v>86</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="15" t="s">
-        <v>69</v>
+      <c r="D60" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="15"/>
+      <c r="F60" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>41</v>
+      <c r="B61" t="s">
+        <v>86</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
-        <v>60</v>
+      <c r="F61" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -2062,66 +2241,75 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="15" t="s">
-        <v>64</v>
+      <c r="F65" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="F66" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -2131,26 +2319,26 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2159,32 +2347,32 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2195,7 +2383,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2212,7 +2400,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2223,7 +2411,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stres\OneDrive\바탕 화면\Multi-3D-PacMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D367F1-74D8-4FC1-BF0B-6FA83BD6A6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0328D130-67D1-4856-8D67-1EEFED9CBFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="104">
   <si>
     <t>2일</t>
   </si>
@@ -868,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,13 +962,31 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,12 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1304,7 +1316,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,32 +1327,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" customWidth="1"/>
-    <col min="2" max="2" width="42.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" customWidth="1"/>
-    <col min="4" max="4" width="41.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="6" width="45.59765625" customWidth="1"/>
-    <col min="7" max="7" width="27.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="45.625" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
@@ -1363,7 +1375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
@@ -1380,7 +1392,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1416,7 +1428,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1428,7 +1440,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1455,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1457,7 +1469,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1486,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1485,7 +1497,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1514,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1514,7 +1526,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1541,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1546,7 +1558,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1560,7 +1572,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1577,7 +1589,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1589,7 +1601,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1606,7 +1618,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1619,7 +1631,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1636,7 +1648,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1653,7 +1665,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -1668,7 +1680,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1685,7 +1697,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1698,7 +1710,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1715,7 +1727,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1727,7 +1739,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1744,7 +1756,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1761,7 +1773,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1771,7 +1783,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1788,7 +1800,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>51</v>
       </c>
@@ -1799,7 +1811,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1820,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1817,14 +1829,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1835,7 +1847,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1852,7 +1864,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1863,7 +1875,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1872,16 +1884,16 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="33.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="34" t="s">
+    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>49</v>
       </c>
@@ -1904,7 +1916,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>50</v>
       </c>
@@ -1921,7 +1933,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
@@ -1957,7 +1969,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
@@ -1972,7 +1984,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
@@ -1987,7 +1999,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
@@ -2005,7 +2017,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +2030,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="29"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
@@ -2031,7 +2043,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
@@ -2049,17 +2061,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="16"/>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="32" t="s">
         <v>47</v>
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
@@ -2067,7 +2079,7 @@
         <v>95</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="32" t="s">
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -2080,41 +2092,37 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="D54" s="22"/>
       <c r="E54" s="2"/>
       <c r="F54" s="18" t="s">
         <v>85</v>
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="D55" s="22"/>
       <c r="E55" s="2"/>
       <c r="F55" s="26" t="s">
         <v>89</v>
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E56" s="28"/>
@@ -2123,100 +2131,100 @@
       </c>
       <c r="G56" s="29"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="37"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="37"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="35" t="s">
         <v>98</v>
       </c>
       <c r="E59" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="35" t="s">
         <v>60</v>
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="35" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="31" t="s">
         <v>61</v>
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="25" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="35" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="38" t="s">
         <v>62</v>
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="31" t="s">
         <v>100</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="39" t="s">
         <v>62</v>
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -2233,7 +2241,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
@@ -2246,7 +2254,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
@@ -2263,7 +2271,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
@@ -2275,7 +2283,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
@@ -2292,7 +2300,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
@@ -2309,7 +2317,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -2319,7 +2327,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
@@ -2336,7 +2344,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>51</v>
       </c>
@@ -2347,7 +2355,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2364,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
@@ -2365,14 +2373,14 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2383,7 +2391,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
@@ -2400,7 +2408,7 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
@@ -2411,7 +2419,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0328D130-67D1-4856-8D67-1EEFED9CBFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A3C806-0802-4F26-A515-B522737759EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="108">
   <si>
     <t>2일</t>
   </si>
@@ -590,6 +590,22 @@
   </si>
   <si>
     <t>16일 오후~19일 노트북 고장</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 회전</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 (위치, 충돌체크 처리)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 위치 계산 및 벽 충돌 처리</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -868,7 +884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,6 +1010,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1325,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
-  <dimension ref="A3:G78"/>
+  <dimension ref="A3:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2245,11 +2273,13 @@
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="35" t="s">
         <v>59</v>
       </c>
       <c r="G64" s="3"/>
@@ -2258,15 +2288,15 @@
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="35" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>37</v>
+      <c r="D65" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G65" s="3"/>
@@ -2275,11 +2305,14 @@
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>37</v>
+      <c r="D66" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" s="42" t="s">
+        <v>62</v>
       </c>
       <c r="G66" s="3"/>
     </row>
@@ -2287,15 +2320,12 @@
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="15" t="s">
+      <c r="D67" s="2"/>
+      <c r="F67" s="42" t="s">
         <v>63</v>
       </c>
       <c r="G67" s="3"/>
@@ -2304,15 +2334,15 @@
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>36</v>
+      <c r="D68" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="31" t="s">
         <v>64</v>
       </c>
       <c r="G68" s="3"/>
@@ -2332,15 +2362,15 @@
         <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="G70" s="5"/>
     </row>
@@ -2348,9 +2378,13 @@
       <c r="A71" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="45" t="s">
+        <v>104</v>
+      </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
@@ -2359,8 +2393,11 @@
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>42</v>
+      <c r="B72" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="G72" s="3"/>
     </row>
@@ -2368,8 +2405,9 @@
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>42</v>
+      <c r="B73" s="2"/>
+      <c r="D73" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="G73" s="3"/>
     </row>
@@ -2395,31 +2433,103 @@
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6" t="s">
+      <c r="E83" s="43"/>
+      <c r="F83" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="G83" s="44"/>
+    </row>
+    <row r="84" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A3C806-0802-4F26-A515-B522737759EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4082226F-E493-46C4-96C1-81AB67B1FDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="107">
   <si>
     <t>2일</t>
   </si>
@@ -276,49 +276,6 @@
   </si>
   <si>
     <t>테스트 (게임 완료, 대기화면 테스트)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>메시지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>서버 구조 만들기</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지 구현이 오래 걸림.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -608,12 +565,16 @@
     <t>플레이어 위치 계산 및 벽 충돌 처리</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>메시지, 서버 구조 만들기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,16 +624,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -736,6 +687,13 @@
       <color theme="4"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -884,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,10 +894,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -948,79 +903,79 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1344,7 +1299,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1355,11 +1310,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72:F75"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>
@@ -1370,17 +1325,17 @@
     <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="34.5" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
@@ -1403,7 +1358,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="17.25" thickTop="1">
       <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
@@ -1415,12 +1370,12 @@
         <v>32</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="44" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -1432,14 +1387,12 @@
         <v>52</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -1451,12 +1404,12 @@
         <v>38</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="16" t="s">
-        <v>76</v>
+      <c r="F7" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1468,7 +1421,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1483,7 +1436,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1497,7 +1450,7 @@
       <c r="E10" s="2"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1467,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1478,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1542,7 +1495,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1554,7 +1507,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1569,12 +1522,12 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -1586,21 +1539,21 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -1617,7 +1570,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1629,7 +1582,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
@@ -1638,7 +1591,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -1646,29 +1599,29 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -1676,16 +1629,16 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="15" t="s">
@@ -1693,14 +1646,14 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="15" t="s">
@@ -1708,7 +1661,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1725,7 +1678,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -1738,7 +1691,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1755,7 +1708,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -1767,7 +1720,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1784,7 +1737,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1801,7 +1754,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -1811,7 +1764,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -1828,7 +1781,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="11" t="s">
         <v>51</v>
       </c>
@@ -1839,7 +1792,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1801,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1857,14 +1810,14 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
@@ -1875,7 +1828,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -1892,7 +1845,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="17.25" thickBot="1">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
@@ -1903,8 +1856,8 @@
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
+    <row r="40" spans="1:7" ht="17.25" thickTop="1">
+      <c r="A40" s="18"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1912,16 +1865,16 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="34.5" thickBot="1">
+      <c r="B41" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>49</v>
       </c>
@@ -1944,7 +1897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="42" customHeight="1" thickTop="1">
       <c r="A43" s="11" t="s">
         <v>50</v>
       </c>
@@ -1952,16 +1905,16 @@
         <v>44</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="20" t="s">
-        <v>79</v>
+      <c r="F43" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="33">
       <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
@@ -1969,290 +1922,290 @@
         <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="18" t="s">
-        <v>70</v>
+      <c r="F44" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="33">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="22"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="20" t="s">
-        <v>75</v>
+      <c r="F45" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="21"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="33">
       <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>94</v>
+      <c r="B47" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>91</v>
+      <c r="B48" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="24" t="s">
-        <v>81</v>
+      <c r="F50" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="25" t="s">
-        <v>82</v>
+      <c r="F51" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="16"/>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="31" t="s">
         <v>47</v>
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="33">
       <c r="A53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>95</v>
+      <c r="B53" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="31" t="s">
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="33">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="22"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="18" t="s">
-        <v>85</v>
+      <c r="F54" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="22"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="26" t="s">
-        <v>89</v>
+      <c r="F55" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="28"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="34"/>
+      <c r="D57" s="33"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="34"/>
+      <c r="D58" s="33"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="30" t="s">
         <v>60</v>
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="D59" s="35" t="s">
-        <v>98</v>
+      <c r="D59" s="34" t="s">
+        <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="34" t="s">
         <v>60</v>
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>86</v>
+      <c r="B60" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="35" t="s">
-        <v>99</v>
+      <c r="D60" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="30" t="s">
         <v>61</v>
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>86</v>
+      <c r="B61" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="35" t="s">
-        <v>100</v>
+      <c r="D61" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="38" t="s">
+      <c r="F61" s="37" t="s">
         <v>62</v>
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="31" t="s">
-        <v>100</v>
+      <c r="D62" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="39" t="s">
+      <c r="F62" s="38" t="s">
         <v>62</v>
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="11" t="s">
         <v>21</v>
       </c>
@@ -2269,85 +2222,85 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="37" t="s">
-        <v>86</v>
+      <c r="B64" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="35" t="s">
+      <c r="F64" s="34" t="s">
         <v>59</v>
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="32" t="s">
-        <v>107</v>
+      <c r="D65" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="31" t="s">
+      <c r="F65" s="30" t="s">
         <v>59</v>
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="42" t="s">
+      <c r="D66" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="39" t="s">
         <v>62</v>
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="F67" s="42" t="s">
+      <c r="F67" s="39" t="s">
         <v>63</v>
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="32" t="s">
-        <v>107</v>
+      <c r="D68" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="31" t="s">
+      <c r="F68" s="30" t="s">
         <v>64</v>
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="11" t="s">
         <v>27</v>
       </c>
@@ -2357,68 +2310,68 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="45" t="s">
-        <v>104</v>
+      <c r="B71" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="17" t="s">
-        <v>107</v>
+      <c r="D71" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>107</v>
+      <c r="B72" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="D73" s="17" t="s">
-        <v>107</v>
+      <c r="D73" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2429,24 +2382,24 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" s="11" t="s">
         <v>5</v>
       </c>
@@ -2457,7 +2410,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" s="11" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2421,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" s="11" t="s">
         <v>7</v>
       </c>
@@ -2479,7 +2432,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" s="11" t="s">
         <v>8</v>
       </c>
@@ -2490,7 +2443,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7">
       <c r="A81" s="11" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2454,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7">
       <c r="A82" s="11" t="s">
         <v>10</v>
       </c>
@@ -2512,24 +2465,24 @@
       <c r="F82" s="2"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43" t="s">
+      <c r="C83" s="40"/>
+      <c r="D83" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43" t="s">
+      <c r="E83" s="40"/>
+      <c r="F83" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G83" s="44"/>
-    </row>
-    <row r="84" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="G83" s="41"/>
+    </row>
+    <row r="84" spans="1:7" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:F3"/>
